--- a/JobTracker.xlsx
+++ b/JobTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PallaviChitrada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90ADEB26-3D58-4B0E-8570-59EAD19AF80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B908D6F-06C1-49EA-B6C2-392170C703F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,9 +35,41 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>PLATFORM</t>
+  </si>
+  <si>
+    <t>JOB TITLE</t>
+  </si>
+  <si>
+    <t>COMPANY</t>
+  </si>
+  <si>
+    <t>APPLICATION URL</t>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>CONTACT</t>
+  </si>
+  <si>
+    <t>Applied:</t>
+  </si>
+  <si>
+    <t>Rejected:</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,6 +78,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -60,7 +99,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -68,18 +107,143 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -90,6 +254,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{634CF757-AD84-4812-B91C-DA648C553D9F}" name="Table2" displayName="Table2" ref="A2:B3" headerRowCount="0" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{AE62E50D-2913-4C39-9FCF-86954F0D3282}" name="Column1" headerRowDxfId="1" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{A190F2A4-5460-479A-B99B-187142093696}" name="Column2" headerRowDxfId="0" dataDxfId="4">
+      <calculatedColumnFormula>COUNTIF(D:D,"Rejected")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -355,16 +531,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="10.88671875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="5.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="35.44140625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="15.5546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1">
+        <f>COUNTIF(D:D,"Applied")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <f>COUNTIF(D:D,"Rejected")</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{049640E6-B285-41E9-B72B-C1ACF64EFA1F}">
+      <formula1>"Applied, Considered, Interviewed, HR, Not Applied, Rejected, "</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/JobTracker.xlsx
+++ b/JobTracker.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PallaviChitrada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B908D6F-06C1-49EA-B6C2-392170C703F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A56473-2AC7-475E-961F-A75EBE1355D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="JobTracker" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,10 +59,10 @@
     <t>CONTACT</t>
   </si>
   <si>
-    <t>Applied:</t>
-  </si>
-  <si>
-    <t>Rejected:</t>
+    <t>Applied</t>
+  </si>
+  <si>
+    <t>Rejected</t>
   </si>
 </sst>
 </file>
@@ -91,15 +91,27 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -116,16 +128,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -134,7 +219,7 @@
   <dxfs count="6">
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -187,6 +272,26 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -209,7 +314,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -224,24 +329,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -257,14 +345,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{634CF757-AD84-4812-B91C-DA648C553D9F}" name="Table2" displayName="Table2" ref="A2:B3" headerRowCount="0" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{634CF757-AD84-4812-B91C-DA648C553D9F}" name="Table2" displayName="Table2" ref="A2:B3" headerRowCount="0" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{AE62E50D-2913-4C39-9FCF-86954F0D3282}" name="Column1" headerRowDxfId="1" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{A190F2A4-5460-479A-B99B-187142093696}" name="Column2" headerRowDxfId="0" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{AE62E50D-2913-4C39-9FCF-86954F0D3282}" name="Column1" headerRowDxfId="5" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{A190F2A4-5460-479A-B99B-187142093696}" name="Column2" headerRowDxfId="4" dataDxfId="2">
       <calculatedColumnFormula>COUNTIF(D:D,"Rejected")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleDark4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -534,14 +622,15 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="5.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="4.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="6" customWidth="1"/>
     <col min="5" max="5" width="17.77734375" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.88671875" style="1" customWidth="1"/>
     <col min="7" max="7" width="24.77734375" style="1" customWidth="1"/>
@@ -550,11 +639,11 @@
     <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -576,20 +665,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1">
-        <f>COUNTIF(D:D,"Applied")</f>
+      <c r="B2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="9"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <f>-COUNTIF(D:D,"Applied")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <f>COUNTIF(D:D,"Rejected")</f>
         <v>0</v>
       </c>
